--- a/Number of Iterações computation.xlsx
+++ b/Number of Iterações computation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiogaldino/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5BDE69D-FA10-4749-A649-8F3E18AC0757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849BD5B9-4800-DE45-80A3-50715D0C3ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16180" xr2:uid="{E583C5A6-F82A-8A49-B55D-B9BD8658970D}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -431,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -651,7 +651,7 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
